--- a/excel_data/collections.xlsx
+++ b/excel_data/collections.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t xml:space="preserve">Finance Processed</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t xml:space="preserve">DITB380768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NS031070MSK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NS066349MSK</t>
   </si>
 </sst>
 </file>
@@ -332,10 +338,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -351,16 +357,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="22.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="21.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="7.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="21.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="7.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="10.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="14.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="13.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="15.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="15.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="24.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="8.53"/>
   </cols>
@@ -545,7 +551,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>1</v>
       </c>
@@ -598,6 +604,118 @@
         <v>2394767</v>
       </c>
       <c r="V4" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>43221</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>967500</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>2394767</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>43221</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>967500</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>2394767</v>
+      </c>
+      <c r="V6" s="0" t="s">
         <v>43</v>
       </c>
     </row>
